--- a/checklist_search.xlsx
+++ b/checklist_search.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950DE4D7-8974-7A4F-BD7D-CE685A60017F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E12FCDF-D81A-9749-9EB4-1AF82FBE8666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="1800" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Строка поиска" sheetId="2" r:id="rId1"/>
+    <sheet name="Search" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Строка поиска'!$A$11:$D$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Search!$A$11:$D$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>Статус</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t xml:space="preserve">Очистка поля: </t>
-  </si>
-  <si>
-    <t>Через клавишу &lt;Esc&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">Через клавишу &lt;Delete&gt; </t>
@@ -297,6 +294,12 @@
   </si>
   <si>
     <t>53</t>
+  </si>
+  <si>
+    <t>Для удобства пользователя предлагается добавить плейсхолдер (Bug-report ID: 2)</t>
+  </si>
+  <si>
+    <t>Запрос обработан корректно. Некорректное отображение страницы (Bug-report ID: 1)</t>
   </si>
 </sst>
 </file>
@@ -880,21 +883,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>65128</xdr:colOff>
+      <xdr:colOff>22456</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC39D805-A7BD-5843-9993-9655AFB179D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2273F9-3DA4-CB47-AB3E-8CF3144A39F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -910,8 +913,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="635001"/>
-          <a:ext cx="7596228" cy="1295400"/>
+          <a:off x="0" y="533400"/>
+          <a:ext cx="8340956" cy="1422400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1197,22 +1200,22 @@
     <col min="1" max="1" width="7.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="60.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1594,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>1</v>
@@ -1684,7 +1687,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
-        <f t="shared" ref="A46:A49" si="1">A45+1</f>
+        <f t="shared" ref="A46:A48" si="1">A45+1</f>
         <v>31</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -1722,33 +1725,33 @@
       <c r="D48" s="16"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
-        <f t="shared" si="1"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <f>A48+1</f>
         <v>34</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="21"/>
+      <c r="C50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <f>A49+1</f>
+        <f t="shared" ref="A51:A52" si="2">A50+1</f>
         <v>35</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>1</v>
@@ -1757,11 +1760,11 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <f t="shared" ref="A52:A53" si="2">A51+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>1</v>
@@ -1769,33 +1772,33 @@
       <c r="D52" s="16"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
-        <f t="shared" si="2"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <f>A52+1</f>
         <v>37</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <f>A53+1</f>
+        <f t="shared" ref="A55:A59" si="3">A54+1</f>
         <v>38</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>1</v>
@@ -1804,16 +1807,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <f t="shared" ref="A56:A60" si="3">A55+1</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
@@ -1821,7 +1824,7 @@
         <v>40</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>1</v>
@@ -1833,8 +1836,8 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>39</v>
+      <c r="B58" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>1</v>
@@ -1847,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>1</v>
@@ -1855,42 +1858,44 @@
       <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
-        <f t="shared" si="3"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="28"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <f>A59+1</f>
         <v>43</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="16"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
-      <c r="B61" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="28"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
-        <f>A60+1</f>
+        <f t="shared" ref="A62:A66" si="4">A61+1</f>
         <v>44</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
-        <f t="shared" ref="A63:A67" si="4">A62+1</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B63" s="15" t="s">
@@ -1941,46 +1946,48 @@
       <c r="D66" s="16"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
-        <f t="shared" si="4"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="28"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="13">
+        <f>A66+1</f>
         <v>49</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="16"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="28"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="16"/>
+    </row>
+    <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
-        <f>A67+1</f>
+        <f t="shared" ref="A69:A70" si="5">A68+1</f>
         <v>50</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
-        <f t="shared" ref="A70:A71" si="5">A69+1</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>1</v>
@@ -1988,40 +1995,40 @@
       <c r="D70" s="16"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="16"/>
+      <c r="A71" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="28"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="35" t="s">
-        <v>80</v>
-      </c>
+      <c r="A72" s="27"/>
       <c r="B72" s="24" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C72" s="25"/>
       <c r="D72" s="28"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="27"/>
-      <c r="B73" s="24" t="s">
+      <c r="A73" s="13">
+        <f>A71+1</f>
+        <v>54</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="28"/>
+      <c r="C73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
-        <f>A72+1</f>
-        <v>54</v>
+        <f t="shared" ref="A74:A78" si="6">A73+1</f>
+        <v>55</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>64</v>
@@ -2033,7 +2040,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
-        <f t="shared" ref="A75:A79" si="6">A74+1</f>
+        <f t="shared" ref="A75" si="7">A73+1</f>
         <v>55</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -2046,8 +2053,8 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
-        <f t="shared" ref="A76" si="7">A74+1</f>
-        <v>55</v>
+        <f t="shared" si="6"/>
+        <v>56</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>66</v>
@@ -2059,7 +2066,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A77" si="8">A75+1</f>
         <v>56</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -2072,8 +2079,8 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
-        <f t="shared" ref="A78" si="8">A76+1</f>
-        <v>56</v>
+        <f t="shared" si="6"/>
+        <v>57</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>68</v>
@@ -2084,21 +2091,14 @@
       <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="13">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="16"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
@@ -2108,51 +2108,48 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+    <row r="82" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
       <c r="B86" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="4"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" s="7"/>
@@ -2160,154 +2157,151 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A11:D79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C61:C67 C12:C53 C73:C79">
+  <autoFilter ref="A11:D78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C60:C66 C12:C52 C72:C78">
     <cfRule type="cellIs" dxfId="39" priority="96" operator="equal">
-      <formula>$B$87</formula>
+      <formula>$B$86</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="97" operator="equal">
+      <formula>$B$85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="98" operator="equal">
+      <formula>$B$84</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="99" operator="equal">
+      <formula>$B$83</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="100" operator="equal">
+      <formula>$B$82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:C57">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>$B$86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>$B$85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>$B$84</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>$B$83</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+      <formula>$B$82</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:C58">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
-      <formula>$B$87</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+  <conditionalFormatting sqref="C53">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>$B$86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>$B$85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>$B$84</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>$B$83</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
-      <formula>$B$87</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
-      <formula>$B$86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>$B$85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
-      <formula>$B$84</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
-      <formula>$B$83</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
-      <formula>$B$87</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
-      <formula>$B$86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>$B$85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
-      <formula>$B$84</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
-      <formula>$B$83</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69:C71">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>$B$87</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>$B$86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>$B$85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>$B$84</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
-      <formula>$B$83</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>$B$87</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>$B$86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>$B$85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>$B$84</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
-      <formula>$B$83</formula>
+      <formula>$B$82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+      <formula>$B$86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>$B$85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>$B$84</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>$B$83</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>$B$82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C70">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>$B$86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>$B$85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>$B$84</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>$B$83</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>$B$82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>$B$86</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>$B$85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>$B$84</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>$B$83</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+      <formula>$B$82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
     <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>$B$87</formula>
+      <formula>$B$86</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>$B$85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>$B$84</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>$B$83</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>$B$82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$B$86</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$B$85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$B$84</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>$B$83</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>$B$87</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>$B$86</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>$B$85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>$B$84</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>$B$83</formula>
+      <formula>$B$82</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select status" sqref="C12:C79" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$B$83:$B$88</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select status" sqref="C12:C78" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$B$82:$B$87</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B75" r:id="rId1" tooltip="Microsoft Edge" display="https://ru.wikipedia.org/wiki/Microsoft_Edge" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B74" r:id="rId1" tooltip="Microsoft Edge" display="https://ru.wikipedia.org/wiki/Microsoft_Edge" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
